--- a/src/test/java/testResult/TestCases_Appium_EmaarOneRN.xlsx
+++ b/src/test/java/testResult/TestCases_Appium_EmaarOneRN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CFDCC9-854C-4E0F-946F-F9D21B5A46A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7176DFE6-0FFE-4E28-ACFD-2FC2E9EABABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Execution Report" sheetId="15" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="97">
   <si>
     <t>Test Status</t>
   </si>
@@ -385,64 +385,31 @@
     <t>Request 020 created by Nishad for testing purpose via Appium Test Automation Tool. Please ignore.</t>
   </si>
   <si>
-    <t>2020/09/15 12:06:12</t>
+    <t>cnidarsha@emaar.ae</t>
   </si>
   <si>
-    <t>00:04:05</t>
+    <t>EH The Hills A2-6-602, Emirates Hills</t>
+  </si>
+  <si>
+    <t>BD Burj Vista T2-9-904, Downtown Dubai</t>
+  </si>
+  <si>
+    <t>2020/09/16 12:39:55</t>
+  </si>
+  <si>
+    <t>00:04:45</t>
   </si>
   <si>
     <t>SR created successfully</t>
   </si>
   <si>
-    <t>00739710</t>
+    <t>00739749</t>
   </si>
   <si>
-    <t>15 Sep 2020, 12:09 PM</t>
+    <t>16 Sep 2020, 12:43 PM</t>
   </si>
   <si>
-    <t>DM 52 42 T2-34-3402</t>
-  </si>
-  <si>
-    <t>2020/09/15 12:10:17</t>
-  </si>
-  <si>
-    <t>00:04:01</t>
-  </si>
-  <si>
-    <t>00739711</t>
-  </si>
-  <si>
-    <t>15 Sep 2020, 12:13 PM</t>
-  </si>
-  <si>
-    <t>DC Harbour Views T1-29-2903</t>
-  </si>
-  <si>
-    <t>2020/09/15 12:14:19</t>
-  </si>
-  <si>
-    <t>00:03:59</t>
-  </si>
-  <si>
-    <t>00739712</t>
-  </si>
-  <si>
-    <t>15 Sep 2020, 12:17 PM</t>
-  </si>
-  <si>
-    <t>2020/09/15 12:18:20</t>
-  </si>
-  <si>
-    <t>00:03:56</t>
-  </si>
-  <si>
-    <t>00739713</t>
-  </si>
-  <si>
-    <t>15 Sep 2020, 12:21 PM</t>
-  </si>
-  <si>
-    <t>ES Greenview-V-1</t>
+    <t>EH The Hills A2-6-602</t>
   </si>
 </sst>
 </file>
@@ -4158,7 +4125,7 @@
       </c>
       <c r="F3" s="11">
         <f>COUNTIF(TCA001_SRCreation!A4:A106, "YES")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="19">
         <f t="shared" ref="G3" si="0">SUM(C3:E3)</f>
@@ -4238,7 +4205,7 @@
       </c>
       <c r="F6" s="29">
         <f>SUM(F3:F5)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
@@ -4360,31 +4327,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="28.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="67.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="67.6640625" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="28.6640625" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="23.6640625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="38.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="83.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="83.5546875" collapsed="false"/>
     <col min="8" max="8" customWidth="true" style="1" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="19.0" collapsed="false"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="43" width="45.44140625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="43" width="38.109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" style="43" width="45.33203125" collapsed="true"/>
     <col min="14" max="14" customWidth="true" style="43" width="36.6640625" collapsed="true"/>
-    <col min="15" max="65" style="1" width="27.77734375" collapsed="true"/>
+    <col min="15" max="65" style="1" width="27.77734375" collapsed="false"/>
     <col min="66" max="66" style="1" width="27.77734375" collapsed="true"/>
-    <col min="67" max="67" style="1" width="27.77734375" collapsed="true"/>
+    <col min="67" max="67" style="1" width="27.77734375" collapsed="false"/>
     <col min="68" max="68" style="1" width="27.77734375" collapsed="true"/>
-    <col min="69" max="69" style="1" width="27.77734375" collapsed="true"/>
+    <col min="69" max="69" style="1" width="27.77734375" collapsed="false"/>
     <col min="70" max="16384" style="1" width="27.77734375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4481,27 +4448,15 @@
       <c r="G4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" t="s">
-        <v>93</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
@@ -4525,31 +4480,19 @@
       <c r="G5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" t="s">
-        <v>95</v>
-      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" t="s">
-        <v>98</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>50</v>
@@ -4558,13 +4501,13 @@
         <v>53</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>58</v>
@@ -4590,13 +4533,13 @@
         <v>51</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>59</v>
@@ -6674,30 +6617,29 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C1" location="'Test Execution Report'!A1" display="DashBoard" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D6:D7" r:id="rId1" display="oneapptester@emaar.ae" xr:uid="{C5AE3415-AE57-4C8C-8D42-2985E2A25E2E}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{5D5BE8FD-C3B0-4259-911B-B9CFCD3E29C6}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{4B87A911-6DDC-461C-B451-61F184643D9A}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{F6D3F8A8-4C9E-4B26-89D9-614EDC88DED6}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{4C9018B0-7CA8-428C-A2B0-CF7E4EA63326}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{CC9E27BD-74DF-4113-940E-075D905119E1}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{A1198F9B-D117-4489-BE1A-C95F362FFEF9}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{218B2F95-DEDD-4683-9A9B-6E9AC1A43A90}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{18B2DD50-1F93-420D-A7AE-1E49950CBB72}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{FF65AD4B-7499-4854-96FE-52B447D5BDB5}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{7335EE1D-3168-40D0-8F39-CFEE8F407821}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{0BC42160-ABE3-4A1A-9173-84746004F945}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{239F4B12-55D2-4A7A-B382-6938A290DC38}"/>
-    <hyperlink ref="D16" r:id="rId14" xr:uid="{2C08D622-C644-4576-8191-E6C59DE7344A}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{BF021AF4-BB36-448B-9F0D-AE0EC704A640}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{B708AB3D-28C0-42F3-8CF2-B3C361775B25}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{FBCFF35D-7E53-43A2-BF29-50C20568560D}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{4037E055-59D9-4208-A989-B3DE5D01AC7B}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{ACDD3B27-E7B9-4D43-BC38-B32C43719871}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{EDEAF288-ABF3-4473-AE57-F3786F151368}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{25641ACD-FA9A-4CAF-A328-17A6EC867B1A}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{4B87A911-6DDC-461C-B451-61F184643D9A}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{4C9018B0-7CA8-428C-A2B0-CF7E4EA63326}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{CC9E27BD-74DF-4113-940E-075D905119E1}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{218B2F95-DEDD-4683-9A9B-6E9AC1A43A90}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{18B2DD50-1F93-420D-A7AE-1E49950CBB72}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{FF65AD4B-7499-4854-96FE-52B447D5BDB5}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{7335EE1D-3168-40D0-8F39-CFEE8F407821}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{0BC42160-ABE3-4A1A-9173-84746004F945}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{239F4B12-55D2-4A7A-B382-6938A290DC38}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{2C08D622-C644-4576-8191-E6C59DE7344A}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{BF021AF4-BB36-448B-9F0D-AE0EC704A640}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{B708AB3D-28C0-42F3-8CF2-B3C361775B25}"/>
+    <hyperlink ref="D19" r:id="rId13" xr:uid="{FBCFF35D-7E53-43A2-BF29-50C20568560D}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{4037E055-59D9-4208-A989-B3DE5D01AC7B}"/>
+    <hyperlink ref="D21" r:id="rId15" xr:uid="{ACDD3B27-E7B9-4D43-BC38-B32C43719871}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{EDEAF288-ABF3-4473-AE57-F3786F151368}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{25641ACD-FA9A-4CAF-A328-17A6EC867B1A}"/>
+    <hyperlink ref="D6" r:id="rId18" xr:uid="{538ACBFD-3334-47EA-95FA-BC7C6D6397E3}"/>
+    <hyperlink ref="D7" r:id="rId19" xr:uid="{EBC530B0-10CB-4D7A-B0DF-A76C63CCB433}"/>
+    <hyperlink ref="D5" r:id="rId20" xr:uid="{2F23D8D0-DDA9-4F57-BF30-A3EA174519DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Classified: Internal</oddFooter>
   </headerFooter>
@@ -6726,31 +6668,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="28.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="67.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="67.6640625" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="28.6640625" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="23.6640625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="38.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="83.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="83.5546875" collapsed="false"/>
     <col min="8" max="8" customWidth="true" style="1" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="19.0" collapsed="false"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="43" width="45.44140625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="43" width="38.109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" style="43" width="45.33203125" collapsed="true"/>
     <col min="14" max="14" customWidth="true" style="43" width="36.6640625" collapsed="true"/>
-    <col min="15" max="65" style="1" width="27.77734375" collapsed="true"/>
+    <col min="15" max="65" style="1" width="27.77734375" collapsed="false"/>
     <col min="66" max="66" style="1" width="27.77734375" collapsed="true"/>
-    <col min="67" max="67" style="1" width="27.77734375" collapsed="true"/>
+    <col min="67" max="67" style="1" width="27.77734375" collapsed="false"/>
     <col min="68" max="68" style="1" width="27.77734375" collapsed="true"/>
-    <col min="69" max="69" style="1" width="27.77734375" collapsed="true"/>
+    <col min="69" max="69" style="1" width="27.77734375" collapsed="false"/>
     <col min="70" max="16384" style="1" width="27.77734375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -6827,39 +6769,51 @@
     </row>
     <row r="4" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>55</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
       <c r="J4" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>50</v>
@@ -6868,38 +6822,26 @@
         <v>53</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>55</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" t="s">
-        <v>100</v>
-      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" t="s">
-        <v>98</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
@@ -9077,30 +9019,30 @@
   <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="28.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="67.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="67.6640625" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="28.6640625" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="23.6640625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="38.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="83.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="83.5546875" collapsed="false"/>
     <col min="8" max="8" customWidth="true" style="1" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="19.0" collapsed="false"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="43" width="45.44140625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="43" width="38.109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" style="43" width="45.33203125" collapsed="true"/>
     <col min="14" max="14" customWidth="true" style="43" width="36.6640625" collapsed="true"/>
-    <col min="15" max="65" style="1" width="27.77734375" collapsed="true"/>
+    <col min="15" max="65" style="1" width="27.77734375" collapsed="false"/>
     <col min="66" max="66" style="1" width="27.77734375" collapsed="true"/>
-    <col min="67" max="67" style="1" width="27.77734375" collapsed="true"/>
+    <col min="67" max="67" style="1" width="27.77734375" collapsed="false"/>
     <col min="68" max="68" style="1" width="27.77734375" collapsed="true"/>
-    <col min="69" max="69" style="1" width="27.77734375" collapsed="true"/>
+    <col min="69" max="69" style="1" width="27.77734375" collapsed="false"/>
     <col min="70" max="16384" style="1" width="27.77734375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -9177,7 +9119,7 @@
     </row>
     <row r="4" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>50</v>
@@ -9209,7 +9151,7 @@
     </row>
     <row r="5" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>50</v>
@@ -9261,27 +9203,15 @@
       <c r="G6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" t="s">
-        <v>104</v>
-      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" t="s">
-        <v>107</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
@@ -11432,12 +11362,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="1" width="10.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="15.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="36.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.77734375" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="10.77734375" collapsed="true"/>
+    <col min="1" max="1" style="1" width="10.77734375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="15.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="36.5546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.109375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.77734375" collapsed="false"/>
+    <col min="6" max="16384" style="1" width="10.77734375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
